--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>522663.2354605274</v>
+        <v>507348.785374216</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
     </row>
     <row r="3">
@@ -741,25 +741,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>87.20907807295006</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>31.69844046683744</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,19 +981,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>131.1298810789587</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,16 +1212,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>126.358590200387</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1230,10 +1230,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>41.41746221848931</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,55 +1382,55 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>124.9488863009592</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>124.3469240739945</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>17.84792012666432</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1649,31 +1649,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V14" t="n">
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>33.69176698831624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1926,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>141.6385482546006</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1986,7 +1986,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,64 +2087,64 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>82.96396779500076</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>26.45213809701126</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>170.6554636898984</v>
       </c>
     </row>
     <row r="22">
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2400,16 +2400,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>121.6506232550285</v>
       </c>
     </row>
     <row r="25">
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,61 +2558,61 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>91.89556019850257</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>142.5572673203519</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2834,28 +2834,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>164.8304714084692</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3029,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>72.388827210165</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,23 +3263,23 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>95.49935363464799</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>29.14270706479791</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3700,19 +3700,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3782,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>29.1427070647978</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3882,10 +3882,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>62.86349518004438</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>153.6529064549858</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.4273118130612</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C2" t="n">
-        <v>100.4273118130612</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D2" t="n">
-        <v>100.4273118130612</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>100.4273118130612</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>100.4273118130612</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
-        <v>100.4273118130612</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X2" t="n">
-        <v>100.4273118130612</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y2" t="n">
-        <v>100.4273118130612</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C6" t="n">
-        <v>789.6041262295092</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D6" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4650,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4683,13 +4683,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
         <v>136.0777814360265</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4860,43 +4860,43 @@
         <v>795.8418184905681</v>
       </c>
       <c r="C9" t="n">
-        <v>621.3887892094411</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="D9" t="n">
-        <v>472.4543795481899</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>313.2169245427344</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>313.2169245427344</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>174.4860991253499</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>61.1169635329292</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5002,10 +5002,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>601.5428246748836</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C11" t="n">
-        <v>601.5428246748836</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D11" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>601.5428246748836</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X11" t="n">
-        <v>601.5428246748836</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y11" t="n">
-        <v>601.5428246748836</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>487.2836868729568</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C12" t="n">
-        <v>487.2836868729568</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D12" t="n">
-        <v>487.2836868729568</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="E12" t="n">
-        <v>487.2836868729568</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>267.0939324713722</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>128.3631070539877</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>487.2836868729568</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="13">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>40.6788758079141</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>40.6788758079141</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>761.8097306235821</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>587.3567013424552</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>438.4222916812039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5358,19 +5358,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5382,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>930.0250676436501</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
         <v>19.28114311021272</v>
@@ -5461,25 +5461,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>312.0389260854624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C18" t="n">
-        <v>312.0389260854624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D18" t="n">
-        <v>163.1045164242111</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,16 +5601,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>555.4877027295624</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>312.0389260854624</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>312.0389260854624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>312.0389260854624</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="19">
@@ -5695,16 +5695,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>802.5825927271064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>802.5825927271064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>802.5825927271064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F20" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G20" t="n">
-        <v>315.6850394389064</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>518.4217842253022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>343.9687549441752</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>343.9687549441752</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>184.7312999387197</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>184.7312999387197</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>46.00047452133521</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5835,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X21" t="n">
-        <v>518.4217842253022</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="Y21" t="n">
-        <v>518.4217842253022</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.6850394389064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>72.23626279480629</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>559.1338160830064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>559.1338160830064</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>259.0600686093459</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="C24" t="n">
-        <v>84.60703932821886</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y24" t="n">
-        <v>259.0600686093459</v>
+        <v>638.9911434400805</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>317.2494235330527</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C27" t="n">
-        <v>317.2494235330527</v>
+        <v>703.0180203102625</v>
       </c>
       <c r="D27" t="n">
-        <v>317.2494235330527</v>
+        <v>554.0836106490112</v>
       </c>
       <c r="E27" t="n">
-        <v>158.0119685275972</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>545.4730417966637</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>317.2494235330527</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>317.2494235330527</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>317.2494235330527</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>317.2494235330527</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y27" t="n">
-        <v>317.2494235330527</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="28">
@@ -6367,10 +6367,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
         <v>19.28114311021272</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>499.3853800778592</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>255.9366034337592</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>255.9366034337592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>255.9366034337592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>255.9366034337592</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.38115216564972</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.38115216564972</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K32" t="n">
         <v>122.2961490211351</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.334904905842</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C33" t="n">
-        <v>110.334904905842</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6783,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>789.7675985785067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>789.7675985785067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>561.5439803148959</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>561.5439803148959</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>318.0952036707959</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>318.0952036707959</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>110.334904905842</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6889,16 +6889,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6935,7 +6935,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6977,10 +6977,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y35" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6999,19 +6999,19 @@
         <v>49.38115216564972</v>
       </c>
       <c r="E36" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,7 +7023,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
         <v>725.4530095217538</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7172,7 +7172,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7217,7 +7217,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>115.7451366805642</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>115.7451366805642</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>115.7451366805642</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>115.7451366805642</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>290.1981659616912</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7497,7 +7497,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
         <v>725.4530095217538</v>
@@ -7518,22 +7518,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>934.6200776674061</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>706.3964594037951</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>471.2443511720524</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>227.7955745279523</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7597,22 +7597,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D44" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E44" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>257.2326523711826</v>
+        <v>640.636862475431</v>
       </c>
       <c r="C45" t="n">
-        <v>82.77962309005554</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D45" t="n">
-        <v>82.77962309005554</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G45" t="n">
         <v>19.28114311021272</v>
@@ -7728,19 +7728,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7755,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>808.852199495499</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>808.852199495499</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>808.852199495499</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>808.852199495499</v>
       </c>
       <c r="X45" t="n">
-        <v>257.2326523711826</v>
+        <v>808.852199495499</v>
       </c>
       <c r="Y45" t="n">
-        <v>257.2326523711826</v>
+        <v>808.852199495499</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,7 +8456,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8778,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9021,7 +9021,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9969,7 +9969,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,7 +10431,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,13 +10440,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,10 +10671,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10911,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11145,10 +11145,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,13 +11385,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22559,7 +22559,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>334.968030499315</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22568,7 +22568,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22610,10 +22610,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>185.901842367224</v>
       </c>
     </row>
     <row r="3">
@@ -22629,25 +22629,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>60.23598749168869</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>201.1021466825878</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22729,7 +22729,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22802,10 +22802,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,10 +22826,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22838,7 +22838,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22869,19 +22869,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>26.51519937644224</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>214.5091600681041</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,10 +23063,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23075,16 +23075,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>198.920084420089</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,16 +23100,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>21.08647536425178</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23118,10 +23118,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>47.97917063292577</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23242,7 +23242,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>290.3538512141759</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,10 +23303,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23346,19 +23346,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>20.72228831938942</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>94.38752410983214</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23537,31 +23537,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>348.5473453077446</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23571,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23622,25 +23622,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>171.9909287889881</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23701,7 +23701,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23777,19 +23777,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23814,16 +23814,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>16.00653220080039</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>107.544508198328</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23832,7 +23832,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,13 +23859,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23874,7 +23874,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,22 +23975,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H20" t="n">
-        <v>256.5108343207664</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,10 +24011,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,22 +24048,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>85.78330613948521</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>35.02723208740596</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>302.2574731329353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
@@ -24288,16 +24288,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>82.77242830881268</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>84.03207252227585</v>
       </c>
     </row>
     <row r="25">
@@ -24418,13 +24418,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,16 +24446,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,22 +24485,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,19 +24519,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>80.81293878981317</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24540,7 +24540,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,16 +24567,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>57.60746137446975</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>148.4449359431696</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,10 +24689,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,28 +24722,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,13 +24759,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>127.8460714905183</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24807,22 +24807,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>67.97011574095609</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24883,13 +24883,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24917,16 +24917,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,7 +24968,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,7 +24999,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25014,10 +25014,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>99.29434389367282</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25053,16 +25053,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,13 +25160,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25239,7 +25239,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,13 +25248,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>83.18302659787169</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25397,13 +25397,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25457,7 +25457,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25482,7 +25482,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>41.84416352856265</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,22 +25521,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>176.6302781386796</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25588,19 +25588,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,7 +25628,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,7 +25758,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>171.0220216300238</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25770,10 +25770,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,16 +25871,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>213.0080510862378</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25922,13 +25922,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25941,22 +25941,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>94.78158527535656</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25995,16 +25995,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>46.51182223983577</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481925.4952859359</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481925.4952859359</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="C2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="E4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="F4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="I4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="M4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27762.96640673983</v>
+        <v>-29593.37421928577</v>
       </c>
       <c r="C6" t="n">
-        <v>53006.46512480788</v>
+        <v>51176.05731226198</v>
       </c>
       <c r="D6" t="n">
-        <v>53006.46512480785</v>
+        <v>51176.05731226198</v>
       </c>
       <c r="E6" t="n">
-        <v>86634.06512480785</v>
+        <v>84803.65731226197</v>
       </c>
       <c r="F6" t="n">
-        <v>86634.06512480786</v>
+        <v>84803.65731226193</v>
       </c>
       <c r="G6" t="n">
-        <v>86634.06512480785</v>
+        <v>84803.65731226196</v>
       </c>
       <c r="H6" t="n">
-        <v>86634.06512480788</v>
+        <v>84803.65731226197</v>
       </c>
       <c r="I6" t="n">
-        <v>86634.06512480785</v>
+        <v>84803.65731226196</v>
       </c>
       <c r="J6" t="n">
-        <v>23574.12252570166</v>
+        <v>21743.71471315577</v>
       </c>
       <c r="K6" t="n">
-        <v>86634.06512480788</v>
+        <v>84803.65731226196</v>
       </c>
       <c r="L6" t="n">
-        <v>86634.06512480784</v>
+        <v>84803.65731226197</v>
       </c>
       <c r="M6" t="n">
-        <v>86634.06512480785</v>
+        <v>84803.65731226197</v>
       </c>
       <c r="N6" t="n">
-        <v>86634.06512480788</v>
+        <v>84803.65731226193</v>
       </c>
       <c r="O6" t="n">
-        <v>86634.06512480786</v>
+        <v>84803.65731226194</v>
       </c>
       <c r="P6" t="n">
-        <v>86634.06512480785</v>
+        <v>84803.65731226196</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,7 +35179,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,16 +35498,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M15" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35741,7 +35741,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36689,7 +36689,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,13 +37160,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,7 +37631,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37865,10 +37865,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N42" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="N42" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38023,7 +38023,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38105,13 +38105,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O45" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507348.785374216</v>
+        <v>509053.5413884827</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -668,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>124.9488863009592</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>212.285385643442</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>37.18582309281555</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,64 +1144,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>126.358590200387</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>17.84792012666432</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1503,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -1746,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1777,52 +1779,52 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1850,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1862,10 +1864,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>29.79900896488263</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>40.67087089223146</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1977,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>200.3360962888296</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -2135,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2223,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>102.9664640366239</v>
       </c>
       <c r="Y21" t="n">
-        <v>170.6554636898984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2369,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2403,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>106.8917755397596</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2412,13 +2414,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>121.6506232550285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2600,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>91.89556019850257</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2649,10 +2651,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9704144860449</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2694,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2798,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
@@ -2807,7 +2809,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2886,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.15414074677624</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>164.8304714084692</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
     </row>
     <row r="33">
@@ -3108,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>46.75622252606242</v>
       </c>
       <c r="D33" t="n">
-        <v>29.79900896488263</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,20 +3502,20 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>95.49935363464799</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="40">
@@ -3700,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,10 +3787,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3904,61 +3906,61 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>153.6529064549858</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4147,55 +4149,55 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.35113235729608</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C2" t="n">
-        <v>31.35113235729608</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729608</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.35113235729608</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,10 +4415,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4512,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
         <v>19.28114311021272</v>
@@ -4598,19 +4600,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.668582052591</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
         <v>19.28114311021272</v>
@@ -4656,7 +4658,7 @@
         <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4683,13 +4685,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>926.4957180431458</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X6" t="n">
-        <v>718.6442178376129</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y6" t="n">
-        <v>510.883919072659</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4844,10 +4846,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,13 +4889,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
         <v>19.28114311021272</v>
@@ -5078,13 +5080,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>588.0815197256143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>413.6284904444873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>413.6284904444873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>413.6284904444873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>267.0939324713722</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>128.3631070539877</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5124,19 +5126,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5151,19 +5153,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.2968567456824</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C14" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D14" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E14" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5302,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U14" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V14" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W14" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X14" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y14" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="15">
@@ -5361,10 +5363,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
         <v>542.809531908403</v>
@@ -5379,19 +5381,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>928.2922408909005</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>726.1056462496665</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>497.8820279860555</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>262.7299197543128</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
         <v>19.28114311021272</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
         <v>19.28114311021272</v>
@@ -5470,16 +5472,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5498,19 +5500,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49.38115216564972</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C18" t="n">
-        <v>49.38115216564972</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D18" t="n">
-        <v>49.38115216564972</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E18" t="n">
-        <v>49.38115216564972</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F18" t="n">
-        <v>49.38115216564972</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>174.4860991253499</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>61.1169635329292</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5695,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D20" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E20" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F20" t="n">
         <v>233.7108255783361</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I20" t="n">
         <v>31.35113235729608</v>
@@ -5783,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,10 +5840,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>634.6640077999109</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>399.5118995681682</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>399.5118995681682</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X21" t="n">
-        <v>191.6603993626354</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="22">
@@ -5932,10 +5934,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>638.9911434400805</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C24" t="n">
-        <v>464.5381141589534</v>
+        <v>616.1867816801781</v>
       </c>
       <c r="D24" t="n">
-        <v>464.5381141589534</v>
+        <v>616.1867816801781</v>
       </c>
       <c r="E24" t="n">
-        <v>305.3006591534979</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F24" t="n">
-        <v>158.7661011803829</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y24" t="n">
-        <v>638.9911434400805</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X26" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="W26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X26" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>795.8418184905681</v>
+        <v>411.587349213889</v>
       </c>
       <c r="C27" t="n">
-        <v>703.0180203102625</v>
+        <v>411.587349213889</v>
       </c>
       <c r="D27" t="n">
-        <v>554.0836106490112</v>
+        <v>411.587349213889</v>
       </c>
       <c r="E27" t="n">
-        <v>394.8461556435558</v>
+        <v>411.587349213889</v>
       </c>
       <c r="F27" t="n">
-        <v>248.3115976704407</v>
+        <v>265.0527912407739</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>126.3219658233894</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y27" t="n">
-        <v>964.0571555106362</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="E29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="G29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6500,13 +6502,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>926.5277204128824</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>926.5277204128824</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>926.5277204128824</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>926.5277204128824</v>
       </c>
       <c r="V30" t="n">
-        <v>193.7341723913397</v>
+        <v>926.5277204128824</v>
       </c>
       <c r="W30" t="n">
-        <v>193.7341723913397</v>
+        <v>683.0789437687823</v>
       </c>
       <c r="X30" t="n">
-        <v>193.7341723913397</v>
+        <v>683.0789437687823</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>475.3186450038284</v>
       </c>
     </row>
     <row r="31">
@@ -6643,28 +6645,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F32" t="n">
+        <v>274.7999090013961</v>
+      </c>
+      <c r="G32" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="H32" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="I32" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="J32" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="I32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="J32" t="n">
-        <v>19.28114311021275</v>
       </c>
       <c r="K32" t="n">
         <v>122.2961490211351</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.38115216564972</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C33" t="n">
-        <v>49.38115216564972</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,10 +6791,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.38115216564972</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6877,31 +6879,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6916,16 @@
         <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6935,7 +6937,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6971,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7123,22 +7125,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>290.1981659616912</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>115.7451366805642</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7451366805642</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>115.7451366805642</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>115.7451366805642</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,7 +7262,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>290.1981659616912</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>290.1981659616912</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>290.1981659616912</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7348,28 +7350,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>874.2758585542716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
         <v>829.5248650203655</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="42">
@@ -7500,7 +7502,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7606,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C44" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D44" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>640.636862475431</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>466.183833194304</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>317.2494235330527</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7733,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>808.852199495499</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>808.852199495499</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>808.852199495499</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>808.852199495499</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>808.852199495499</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>808.852199495499</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7843,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8304,10 +8306,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8535,7 +8537,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,7 +8546,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8772,7 +8774,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8781,13 +8783,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9249,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,7 +9968,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10437,13 +10439,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10668,10 +10670,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11148,10 +11150,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11379,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>281.9271594407523</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,10 +22594,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>185.901842367224</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22629,25 +22631,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>60.23598749168869</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22729,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22838,19 +22840,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>157.445715035027</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22866,7 +22868,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22923,7 +22925,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>214.5091600681041</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>21.08647536425178</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>137.3904765850695</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23346,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>94.38752410983214</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23391,13 +23393,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>150.4632457993081</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23619,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23634,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23710,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23738,10 +23740,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>169.6449844288198</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23750,10 +23752,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>107.544508198328</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>48.72576195918362</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23865,16 +23867,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23935,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>214.9666412263055</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,10 +24025,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24048,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24111,10 +24113,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>102.8065211668536</v>
       </c>
       <c r="Y21" t="n">
-        <v>35.02723208740596</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24172,13 +24174,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>224.9573404408503</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24257,16 +24259,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
@@ -24291,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>50.75330491564131</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24300,13 +24302,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,10 +24335,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>84.03207252227585</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24418,13 +24420,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24488,25 +24490,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>80.81293878981317</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24537,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>6.265029750451561</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24582,10 +24584,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24686,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
@@ -24695,7 +24697,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24774,7 +24776,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>63.0036934058669</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>67.97011574095609</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>195.8925415817687</v>
       </c>
     </row>
     <row r="33">
@@ -24996,19 +24998,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>125.9522764622533</v>
       </c>
       <c r="D33" t="n">
-        <v>117.6460565997561</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>120.9660550247851</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25239,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>127.8460714905183</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,7 +25286,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,10 +25399,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25482,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>41.84416352856265</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="40">
@@ -25588,13 +25590,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>158.8955716431281</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>170.4484560200386</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>164.3376445463983</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>46.51182223983577</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26316,13 @@
         <v>108004.437145366</v>
       </c>
       <c r="C2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="D2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="F2" t="n">
         <v>108004.437145366</v>
@@ -26335,7 +26337,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26421,10 +26423,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
         <v>8547.111069342402</v>
@@ -26433,7 +26435,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
         <v>8547.111069342402</v>
@@ -26445,7 +26447,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
         <v>8547.111069342402</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29593.37421928577</v>
+        <v>-29593.37421928576</v>
       </c>
       <c r="C6" t="n">
-        <v>51176.05731226198</v>
+        <v>51176.05731226199</v>
       </c>
       <c r="D6" t="n">
-        <v>51176.05731226198</v>
+        <v>51176.05731226196</v>
       </c>
       <c r="E6" t="n">
+        <v>84803.65731226199</v>
+      </c>
+      <c r="F6" t="n">
+        <v>84803.65731226196</v>
+      </c>
+      <c r="G6" t="n">
+        <v>84803.65731226194</v>
+      </c>
+      <c r="H6" t="n">
+        <v>84803.65731226196</v>
+      </c>
+      <c r="I6" t="n">
         <v>84803.65731226197</v>
       </c>
-      <c r="F6" t="n">
-        <v>84803.65731226193</v>
-      </c>
-      <c r="G6" t="n">
-        <v>84803.65731226196</v>
-      </c>
-      <c r="H6" t="n">
-        <v>84803.65731226197</v>
-      </c>
-      <c r="I6" t="n">
-        <v>84803.65731226196</v>
-      </c>
       <c r="J6" t="n">
-        <v>21743.71471315577</v>
+        <v>21743.71471315574</v>
       </c>
       <c r="K6" t="n">
         <v>84803.65731226196</v>
       </c>
       <c r="L6" t="n">
-        <v>84803.65731226197</v>
+        <v>84803.65731226196</v>
       </c>
       <c r="M6" t="n">
         <v>84803.65731226197</v>
       </c>
       <c r="N6" t="n">
-        <v>84803.65731226193</v>
+        <v>84803.65731226196</v>
       </c>
       <c r="O6" t="n">
-        <v>84803.65731226194</v>
+        <v>84803.65731226197</v>
       </c>
       <c r="P6" t="n">
-        <v>84803.65731226196</v>
+        <v>84803.65731226197</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34945,10 +34947,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35024,10 +35026,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35255,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,7 +35266,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35422,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35501,13 +35503,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35969,10 +35971,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,7 +36688,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36841,7 +36843,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37157,13 +37159,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37628,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37868,10 +37870,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O42" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="O42" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38099,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
